--- a/biology/Zoologie/Cryptancistrus_similis/Cryptancistrus_similis.xlsx
+++ b/biology/Zoologie/Cryptancistrus_similis/Cryptancistrus_similis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptancistrus similis, seul représentant du genre Cryptancistrus, est une espèce de poissons-chats de la famille des Loricariidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'est connue que du haut du Paru de Oeste River au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'est connue que du haut du Paru de Oeste River au Brésil.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Cryptancistrus dérive du grec ancien κρυπτός, kruptós, « couvert, caché » et ἄγκιστρον, ánkistron, « petite ancre, crochet » en référence au genre Ancistrus, le genre type des Ancistrini, auquel il est extérieurement très similaire[1].
-Son nom spécifique, du latin similis, « semblable, similaire… », lui a été en raison sa grande similitude avec Guyanancistrus brevispinis, l'espèce type du genre Guyanancistrus[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Cryptancistrus dérive du grec ancien κρυπτός, kruptós, « couvert, caché » et ἄγκιστρον, ánkistron, « petite ancre, crochet » en référence au genre Ancistrus, le genre type des Ancistrini, auquel il est extérieurement très similaire.
+Son nom spécifique, du latin similis, « semblable, similaire… », lui a été en raison sa grande similitude avec Guyanancistrus brevispinis, l'espèce type du genre Guyanancistrus.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Sonia Fisch-Muller, Jan H. Mol et Raphaël Covain, « An integrative framework to reevaluate the Neotropical catfish genus Guyanancistrus (Siluriformes: Loricariidae) with particular emphasis on the Guyanancistrus brevispinis complex », PLOS One, PLoS, vol. 13, no 1,‎ 3 janvier 2018, e0189789 (ISSN 1932-6203, OCLC 228234657, PMID 29298344, PMCID 5752014, DOI 10.1371/JOURNAL.PONE.0189789, lire en ligne)</t>
         </is>
